--- a/DataProcessors/TaxAccountGroup/НовыйШаблонДляКопирования.xlsx
+++ b/DataProcessors/TaxAccountGroup/НовыйШаблонДляКопирования.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Реттік № / № п/п</t>
   </si>
@@ -81,14 +81,23 @@
     <t>17,095.00</t>
   </si>
   <si>
-    <t>Принятые платежи за '31.05.2018сумма:13595.00 комиссия:0.0000  052018, Сведения о ребенке Каримбай Баур, ИИН 130804503888, группа 12 02 Кызгалдак,'</t>
+    <t>Принятые платежи за '31.05.2018сумма:13595.00 комиссия:0.0000  052018, Сведения о ребенке Каримбай Баур Кундыбаевич, ИИН 130804503888, группа 12 02 Кызгалдак,'</t>
+  </si>
+  <si>
+    <t>01.05.2018</t>
+  </si>
+  <si>
+    <t>1090 ӘБІЛДА АЙАРУ АНУАРҚЫЗЫ</t>
+  </si>
+  <si>
+    <t>СРЕДНЯЯ ГР 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +130,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,8 +185,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,8 +212,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,12 +244,40 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Borders_Center_6" xfId="2"/>
     <cellStyle name="Borders_CenterWrap_6" xfId="1"/>
     <cellStyle name="Borders_Right_6" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +579,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A4" sqref="A4:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +661,224 @@
       </c>
       <c r="L2" s="8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>97667</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>811221401810</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14">
+        <v>101140006641</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14">
+        <v>112</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>97667</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>811221401810</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>101140006641</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="14">
+        <v>112</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="18">
+        <v>151205504344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>97667</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14">
+        <v>811221401810</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="14">
+        <v>101140006641</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14">
+        <v>112</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>97667</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>811221401810</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14">
+        <v>101140006641</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14">
+        <v>112</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>97667</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14">
+        <v>811221401810</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14">
+        <v>101140006641</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="14">
+        <v>112</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="18">
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
